--- a/MentalF.xlsx
+++ b/MentalF.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\MedHelpCrawler_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +148,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,27 +445,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,151 +475,154 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B21">
+    <sortCondition descending="1" ref="B2:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MentalF.xlsx
+++ b/MentalF.xlsx
@@ -1,91 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\MedHelpCrawler_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Hallucinations</t>
   </si>
   <si>
-    <t>Mental Depression</t>
+    <t>Stubbornness</t>
+  </si>
+  <si>
+    <t>despondency</t>
+  </si>
+  <si>
+    <t>Hyperactive behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgetting </t>
+  </si>
+  <si>
+    <t>Forgetting</t>
+  </si>
+  <si>
+    <t>Disorientation</t>
+  </si>
+  <si>
+    <t>Alcoholic Intoxication</t>
+  </si>
+  <si>
+    <t>Acute alcoholic intoxication</t>
+  </si>
+  <si>
+    <t>Marijuana Abuse</t>
+  </si>
+  <si>
+    <t>Dysthymic Disorder</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>MAJOR AFFECTIVE DISORDER 2</t>
+  </si>
+  <si>
+    <t>Psychiatric problem</t>
+  </si>
+  <si>
+    <t>Attention deficit hyperactivity disorder</t>
+  </si>
+  <si>
+    <t>Somnolence</t>
+  </si>
+  <si>
+    <t>Hallucinogen Persisting Perception Disorder</t>
+  </si>
+  <si>
+    <t>Derealization</t>
+  </si>
+  <si>
+    <t>Autistic Disorder</t>
+  </si>
+  <si>
+    <t>Agoraphobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Depression </t>
   </si>
   <si>
     <t>Depressive disorder</t>
   </si>
   <si>
-    <t>Dementia</t>
-  </si>
-  <si>
-    <t>Insanity</t>
-  </si>
-  <si>
-    <t>Disorientation</t>
-  </si>
-  <si>
-    <t>Delusions</t>
+    <t>Mental Suffering</t>
+  </si>
+  <si>
+    <t>Alcoholic Intoxication , Chronic</t>
+  </si>
+  <si>
+    <t>Psychotic</t>
   </si>
   <si>
     <t>Anxiety</t>
   </si>
   <si>
+    <t>Flashing</t>
+  </si>
+  <si>
     <t>Obsessive-Compulsive Personality</t>
   </si>
   <si>
     <t>Obsessive-Compulsive Disorder</t>
   </si>
   <si>
-    <t>Orgasm incapacity</t>
+    <t xml:space="preserve">Disruptive , Impulse Control , and Conduct Disorders </t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>Agnosia for Pain</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Obsessions</t>
+  </si>
+  <si>
+    <t>Frenzy</t>
+  </si>
+  <si>
+    <t>Mild cognitive disorder</t>
+  </si>
+  <si>
+    <t>Caffeine related disorders</t>
+  </si>
+  <si>
+    <t>Bedwetting</t>
   </si>
   <si>
     <t>Mood swings</t>
   </si>
   <si>
-    <t>Hyperactive behavior</t>
-  </si>
-  <si>
-    <t>Somnolence</t>
+    <t>Manic</t>
+  </si>
+  <si>
+    <t>Spraying behavior</t>
+  </si>
+  <si>
+    <t>Punding</t>
+  </si>
+  <si>
+    <t>Aphasia</t>
+  </si>
+  <si>
+    <t>Drug abuse</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorders</t>
+  </si>
+  <si>
+    <t>Speech Sound Disorders</t>
+  </si>
+  <si>
+    <t>Hypervigilance</t>
+  </si>
+  <si>
+    <t>Generalized Anxiety Disorder</t>
+  </si>
+  <si>
+    <t>Impatience</t>
+  </si>
+  <si>
+    <t>Neurotic Disorders</t>
+  </si>
+  <si>
+    <t>Hypochondriasis</t>
+  </si>
+  <si>
+    <t>Binge eating disorder</t>
+  </si>
+  <si>
+    <t>Alcoholic blackout</t>
+  </si>
+  <si>
+    <t>violent</t>
+  </si>
+  <si>
+    <t>Somatization</t>
+  </si>
+  <si>
+    <t>Anxiety Disorders</t>
+  </si>
+  <si>
+    <t>Withdrawal dysfunction</t>
+  </si>
+  <si>
+    <t>Phobic anxiety disorder</t>
   </si>
   <si>
     <t>Apathy</t>
   </si>
   <si>
-    <t>Confusion</t>
-  </si>
-  <si>
-    <t>Nightmare</t>
-  </si>
-  <si>
-    <t>Nightmares</t>
-  </si>
-  <si>
-    <t>Mental blocking</t>
-  </si>
-  <si>
-    <t>Forgetting</t>
+    <t>Post-Traumatic Stress Disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental blocking </t>
+  </si>
+  <si>
+    <t>Addictive Behavior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +275,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,10 +353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,184 +562,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="B13">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B21">
-    <sortCondition descending="1" ref="B2:B21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>